--- a/WeatherArchive.Tests/TestFiles/Invalid2.xlsx
+++ b/WeatherArchive.Tests/TestFiles/Invalid2.xlsx
@@ -450,201 +450,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="B1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>100</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>89</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-6.9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>737</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>100</v>
+      </c>
+      <c r="K5" s="3">
+        <v>800</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
         <v>40179</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C6" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>91</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-7.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>738</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>-5.5</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="J6" s="3">
+        <v>90</v>
+      </c>
+      <c r="K6" s="3">
+        <v>800</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-11.5</v>
+      </c>
+      <c r="E7" s="3">
         <v>89</v>
       </c>
-      <c r="E5" s="3">
-        <v>-6.9</v>
-      </c>
-      <c r="F5" s="3">
-        <v>737</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>100</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="F7" s="3">
+        <v>-12.8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>739</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>800</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>40179</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>91</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-7.1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>738</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>90</v>
-      </c>
-      <c r="J6" s="3">
-        <v>800</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-11.5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>89</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-12.8</v>
-      </c>
-      <c r="F7" s="3">
-        <v>739</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>800</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>4</v>
       </c>
     </row>
